--- a/odk_app/config/tables/remeasure/forms/remeasure/remeasure.xlsx
+++ b/odk_app/config/tables/remeasure/forms/remeasure/remeasure.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="188">
   <si>
     <t xml:space="preserve">setting_name</t>
   </si>
@@ -54,6 +54,9 @@
     <t xml:space="preserve">clause</t>
   </si>
   <si>
+    <t xml:space="preserve">condition</t>
+  </si>
+  <si>
     <t xml:space="preserve">type</t>
   </si>
   <si>
@@ -123,22 +126,169 @@
     <t xml:space="preserve">Rooting</t>
   </si>
   <si>
+    <t xml:space="preserve">decimal</t>
+  </si>
+  <si>
     <t xml:space="preserve">lean_angle</t>
   </si>
   <si>
     <t xml:space="preserve">Lean Angle (deg)</t>
   </si>
   <si>
+    <t xml:space="preserve">(function() { if (data('lean_angle') &lt;= 120  &amp;&amp; data('lean_angle') &gt;=0){return true;} alert('Lean Angle Needs to be Fixed'); return false;})()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix Lean Angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">data(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'lean_angle'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">) &gt; 120 || data(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'crown_percentage') &lt; 0 </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lean Angle must be between 0 and 120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end if</t>
+  </si>
+  <si>
     <t xml:space="preserve">crown_percentage</t>
   </si>
   <si>
     <t xml:space="preserve">Crown Ratio (%)</t>
   </si>
   <si>
+    <t xml:space="preserve">(function() { if (data('crown_percentage') &lt;= 100  &amp;&amp; data('crown_percentage') &gt;=0){return true;} alert('Crown Ratio Needs to be Fixed'); return false;})()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix Crown Ratio</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">data(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">crown_percentage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">) &gt; 100 || data(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'crown_percentage') &lt; 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Crown Ratio must be between 0 and 100</t>
+  </si>
+  <si>
     <t xml:space="preserve">tree_percentage</t>
   </si>
   <si>
     <t xml:space="preserve">Tree Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(function() { if (data('tree_percentage') &lt;= 100  &amp;&amp; data('tree_percentage') &gt;=0){return true;} alert('Tree Percentage Needs to be Fixed'); return false;})()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix Tree Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('tree_percentage') &gt; 100 || data('tree_percentage') &lt; 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tree Percentage must be between 0 and 100</t>
   </si>
   <si>
     <t xml:space="preserve">select_one_dropdown</t>
@@ -544,7 +694,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -598,13 +748,43 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -656,7 +836,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -678,6 +858,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -765,7 +961,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -839,10 +1035,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -850,11 +1046,11 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.84"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="121.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.33"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
@@ -896,34 +1092,38 @@
       <c r="L1" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="M1" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="5"/>
+        <v>22</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="M3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
@@ -933,142 +1133,268 @@
       <c r="E4" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="F4" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="F6" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="H7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="A10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>43</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
+      <c r="F11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="B12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1088,8 +1414,8 @@
   </sheetPr>
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1101,10 +1427,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -1112,10 +1438,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>1</v>
@@ -1123,10 +1449,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>2</v>
@@ -1134,10 +1460,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>3</v>
@@ -1145,35 +1471,35 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1188,563 +1514,563 @@
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>69</v>
+        <v>57</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>73</v>
+        <v>57</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>75</v>
+        <v>57</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>76</v>
+        <v>57</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>82</v>
+        <v>57</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>84</v>
+        <v>57</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>86</v>
+        <v>57</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>88</v>
+        <v>57</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>90</v>
+        <v>57</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>92</v>
+        <v>57</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>94</v>
+        <v>57</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>95</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>97</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>99</v>
+        <v>57</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>101</v>
+        <v>57</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>103</v>
+        <v>57</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>105</v>
+        <v>57</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>107</v>
+        <v>57</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>109</v>
+        <v>57</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>111</v>
+        <v>57</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>113</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>115</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>117</v>
+        <v>57</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>119</v>
+        <v>57</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>121</v>
+        <v>57</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>123</v>
+        <v>57</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>125</v>
+        <v>57</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>127</v>
+        <v>57</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>129</v>
+        <v>57</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>131</v>
+        <v>57</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>133</v>
+        <v>57</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>135</v>
+        <v>57</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>137</v>
+        <v>57</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>139</v>
+        <v>57</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>141</v>
+        <v>57</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>142</v>
+        <v>57</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>144</v>
+        <v>57</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>146</v>
+        <v>57</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>147</v>
+        <v>57</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>149</v>
+        <v>57</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>151</v>
+        <v>57</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>153</v>
+        <v>57</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>155</v>
+        <v>57</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>157</v>
+        <v>57</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>159</v>
+        <v>57</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>161</v>
+        <v>57</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1764,35 +2090,35 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B64" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B65" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B66" s="5" t="n">
         <v>3</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1802,35 +2128,35 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B68" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B69" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B70" s="5" t="n">
         <v>3</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,35 +2166,35 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B72" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B73" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B74" s="5" t="n">
         <v>3</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/odk_app/config/tables/remeasure/forms/remeasure/remeasure.xlsx
+++ b/odk_app/config/tables/remeasure/forms/remeasure/remeasure.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\dev\classes\capstone\app-designer-2.1.6\app\config\tables\remeasure\forms\remeasure\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E1B4FD-CC82-4E9B-99E1-EF3B55917C3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21390" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="settings" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="survey" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="choices" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="settings" sheetId="1" r:id="rId1"/>
+    <sheet name="properties" sheetId="4" r:id="rId2"/>
+    <sheet name="survey" sheetId="2" r:id="rId3"/>
+    <sheet name="choices" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,126 +28,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="188">
-  <si>
-    <t xml:space="preserve">setting_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.title.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remeasure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">table_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remeasure Form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clause</t>
-  </si>
-  <si>
-    <t xml:space="preserve">condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">values_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.prompt.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.hint.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.contraint_message.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appearance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">begin screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dbh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBH (cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one_integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tree_vigor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overall_vigor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall Vigor (OV)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">main_stem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Stem (MS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rooting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rooting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lean_angle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lean Angle (deg)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(function() { if (data('lean_angle') &lt;= 120  &amp;&amp; data('lean_angle') &gt;=0){return true;} alert('Lean Angle Needs to be Fixed'); return false;})()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fix Lean Angle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="205">
+  <si>
+    <t>setting_name</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>remeasure</t>
+  </si>
+  <si>
+    <t>from_version</t>
+  </si>
+  <si>
+    <t>table_id</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>Remeasure Form</t>
+  </si>
+  <si>
+    <t>clause</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>values_list</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>display.contraint_message.text</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>begin screen</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>dbh</t>
+  </si>
+  <si>
+    <t>DBH (cm)</t>
+  </si>
+  <si>
+    <t>select_one_integer</t>
+  </si>
+  <si>
+    <t>tree_vigor</t>
+  </si>
+  <si>
+    <t>overall_vigor</t>
+  </si>
+  <si>
+    <t>Overall Vigor (OV)</t>
+  </si>
+  <si>
+    <t>main_stem</t>
+  </si>
+  <si>
+    <t>Main Stem (MS)</t>
+  </si>
+  <si>
+    <t>rooting</t>
+  </si>
+  <si>
+    <t>Rooting</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>lean_angle</t>
+  </si>
+  <si>
+    <t>Lean Angle (deg)</t>
+  </si>
+  <si>
+    <t>(function() { if (data('lean_angle') &lt;= 120  &amp;&amp; data('lean_angle') &gt;=0){return true;} alert('Lean Angle Needs to be Fixed'); return false;})()</t>
+  </si>
+  <si>
+    <t>Fix Lean Angle</t>
+  </si>
+  <si>
+    <t>if</t>
   </si>
   <si>
     <r>
@@ -151,7 +157,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">data(</t>
+      <t>data(</t>
     </r>
     <r>
       <rPr>
@@ -161,7 +167,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">'lean_angle'</t>
+      <t>'lean_angle'</t>
     </r>
     <r>
       <rPr>
@@ -170,7 +176,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">) &gt; 120 || data(</t>
+      <t>) &gt; 120 || data(</t>
     </r>
     <r>
       <rPr>
@@ -184,25 +190,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lean Angle must be between 0 and 120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crown_percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crown Ratio (%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(function() { if (data('crown_percentage') &lt;= 100  &amp;&amp; data('crown_percentage') &gt;=0){return true;} alert('Crown Ratio Needs to be Fixed'); return false;})()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fix Crown Ratio</t>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Lean Angle must be between 0 and 120</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>crown_percentage</t>
+  </si>
+  <si>
+    <t>Crown Ratio (%)</t>
+  </si>
+  <si>
+    <t>(function() { if (data('crown_percentage') &lt;= 100  &amp;&amp; data('crown_percentage') &gt;=0){return true;} alert('Crown Ratio Needs to be Fixed'); return false;})()</t>
+  </si>
+  <si>
+    <t>Fix Crown Ratio</t>
   </si>
   <si>
     <r>
@@ -212,7 +218,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">data(</t>
+      <t>data(</t>
     </r>
     <r>
       <rPr>
@@ -221,7 +227,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">'</t>
+      <t>'</t>
     </r>
     <r>
       <rPr>
@@ -230,7 +236,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">crown_percentage</t>
+      <t>crown_percentage</t>
     </r>
     <r>
       <rPr>
@@ -239,7 +245,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">'</t>
+      <t>'</t>
     </r>
     <r>
       <rPr>
@@ -248,7 +254,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">) &gt; 100 || data(</t>
+      <t>) &gt; 100 || data(</t>
     </r>
     <r>
       <rPr>
@@ -257,7 +263,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">'crown_percentage') &lt; 0</t>
+      <t>'crown_percentage') &lt; 0</t>
     </r>
     <r>
       <rPr>
@@ -270,431 +276,479 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Crown Ratio must be between 0 and 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tree_percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tree Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(function() { if (data('tree_percentage') &lt;= 100  &amp;&amp; data('tree_percentage') &gt;=0){return true;} alert('Tree Percentage Needs to be Fixed'); return false;})()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fix Tree Percentage</t>
+    <t>Crown Ratio must be between 0 and 100</t>
+  </si>
+  <si>
+    <t>tree_percentage</t>
+  </si>
+  <si>
+    <t>Tree Percentage</t>
+  </si>
+  <si>
+    <t>(function() { if (data('tree_percentage') &lt;= 100  &amp;&amp; data('tree_percentage') &gt;=0){return true;} alert('Tree Percentage Needs to be Fixed'); return false;})()</t>
+  </si>
+  <si>
+    <t>Fix Tree Percentage</t>
   </si>
   <si>
     <t xml:space="preserve">data('tree_percentage') &gt; 100 || data('tree_percentage') &lt; 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">Tree Percentage must be between 0 and 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one_dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tree_comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment_custom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Custom comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice_list_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">condition_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commentValue1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Info 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commentValue2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Info 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commentValue3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Info 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bark_slough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bark sloughing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlScrp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bole Scrape/Scar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlSnp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bole Snap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BrknTp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broken Top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brown_needles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brown needles present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BttSwl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butt Swell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHKLOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHKSPP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Species ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cnks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conks Present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crook in Stem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter Double Checked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DdTp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dead Top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DwrfMstl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dwarf Mistletoe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EpBr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epicormic Branching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FltTp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flat Top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FrkTp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forked Top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guide Nails Added</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hit_by_snag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hit by snag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hit_by_tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hit by live tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insect_holes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insect holes in bark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JointDBH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two Trees Measured Together</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log_against_it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log pressed against it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LRR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laminated Root Rot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MeasSwell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBH measure includes swelling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured perpend. to lean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEWLOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NFAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Found After Search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Needs New Tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No_comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Void</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On_nurse_log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On nurse log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phellinus_pini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phellinus pini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PistlButt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pistol butt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pitch_sheets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pitch sheets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pitch_tubes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pitch tubes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrevTagATD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prev tagged, add to database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReitLdr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reiterated leader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rot_in_bole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rot in bole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sapsucker_holes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sapsucker holes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sawdust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sparse_crown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sparse crown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StemSwp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stem Sweep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stilt-rooted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SweepVert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweeps to vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_NBH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tag Nailed at Breast height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TF_NEstHt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tag Found, Nailed at Estimated Breast Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TF_NPrevHt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tag Found, Nailed at Previous Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TgRepl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tag Replaced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TNF_NEstHt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tag not found, temp tag at EstHt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WtchBrm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Witches' Broom Present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - Main stem intact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 - Broken above root collar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 - Broken below root collar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - Fully rooted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 - Partially rooted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 - Uprooted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - Good</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 - Fair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 - Poor</t>
+    <t>Tree Percentage must be between 0 and 100</t>
+  </si>
+  <si>
+    <t>select_one_dropdown</t>
+  </si>
+  <si>
+    <t>tree_comments</t>
+  </si>
+  <si>
+    <t>comment_1</t>
+  </si>
+  <si>
+    <t>Comment 1</t>
+  </si>
+  <si>
+    <t>comment_2</t>
+  </si>
+  <si>
+    <t>Comment 2</t>
+  </si>
+  <si>
+    <t>comment_3</t>
+  </si>
+  <si>
+    <t>Comment 3</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>comment_custom</t>
+  </si>
+  <si>
+    <t>Custom comment</t>
+  </si>
+  <si>
+    <t>end screen</t>
+  </si>
+  <si>
+    <t>choice_list_name</t>
+  </si>
+  <si>
+    <t>data_value</t>
+  </si>
+  <si>
+    <t>condition_value</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>comment_value</t>
+  </si>
+  <si>
+    <t>commentValue1</t>
+  </si>
+  <si>
+    <t>Info 1</t>
+  </si>
+  <si>
+    <t>commentValue2</t>
+  </si>
+  <si>
+    <t>Info 2</t>
+  </si>
+  <si>
+    <t>commentValue3</t>
+  </si>
+  <si>
+    <t>Info 3</t>
+  </si>
+  <si>
+    <t>Bark_slough</t>
+  </si>
+  <si>
+    <t>Bark sloughing</t>
+  </si>
+  <si>
+    <t>BlScrp</t>
+  </si>
+  <si>
+    <t>Bole Scrape/Scar</t>
+  </si>
+  <si>
+    <t>BlSnp</t>
+  </si>
+  <si>
+    <t>Bole Snap</t>
+  </si>
+  <si>
+    <t>BrknTp</t>
+  </si>
+  <si>
+    <t>Broken Top</t>
+  </si>
+  <si>
+    <t>Brown_needles</t>
+  </si>
+  <si>
+    <t>Brown needles present</t>
+  </si>
+  <si>
+    <t>BttSwl</t>
+  </si>
+  <si>
+    <t>Butt Swell</t>
+  </si>
+  <si>
+    <t>Burls</t>
+  </si>
+  <si>
+    <t>CHKLOC</t>
+  </si>
+  <si>
+    <t>Check Location</t>
+  </si>
+  <si>
+    <t>CHKSPP</t>
+  </si>
+  <si>
+    <t>Check Species ID</t>
+  </si>
+  <si>
+    <t>Cnks</t>
+  </si>
+  <si>
+    <t>Conks Present</t>
+  </si>
+  <si>
+    <t>Crook</t>
+  </si>
+  <si>
+    <t>Crook in Stem</t>
+  </si>
+  <si>
+    <t>DDC</t>
+  </si>
+  <si>
+    <t>Diameter Double Checked</t>
+  </si>
+  <si>
+    <t>DdTp</t>
+  </si>
+  <si>
+    <t>Dead Top</t>
+  </si>
+  <si>
+    <t>DwrfMstl</t>
+  </si>
+  <si>
+    <t>Dwarf Mistletoe</t>
+  </si>
+  <si>
+    <t>EpBr</t>
+  </si>
+  <si>
+    <t>Epicormic Branching</t>
+  </si>
+  <si>
+    <t>FltTp</t>
+  </si>
+  <si>
+    <t>Flat Top</t>
+  </si>
+  <si>
+    <t>Frass</t>
+  </si>
+  <si>
+    <t>FrkTp</t>
+  </si>
+  <si>
+    <t>Forked Top</t>
+  </si>
+  <si>
+    <t>GNA</t>
+  </si>
+  <si>
+    <t>Guide Nails Added</t>
+  </si>
+  <si>
+    <t>Hit_by_snag</t>
+  </si>
+  <si>
+    <t>Hit by snag</t>
+  </si>
+  <si>
+    <t>Hit_by_tree</t>
+  </si>
+  <si>
+    <t>Hit by live tree</t>
+  </si>
+  <si>
+    <t>Insect_holes</t>
+  </si>
+  <si>
+    <t>Insect holes in bark</t>
+  </si>
+  <si>
+    <t>JointDBH</t>
+  </si>
+  <si>
+    <t>Two Trees Measured Together</t>
+  </si>
+  <si>
+    <t>Log_against_it</t>
+  </si>
+  <si>
+    <t>Log pressed against it</t>
+  </si>
+  <si>
+    <t>LRR</t>
+  </si>
+  <si>
+    <t>Laminated Root Rot</t>
+  </si>
+  <si>
+    <t>MeasSwell</t>
+  </si>
+  <si>
+    <t>DBH measure includes swelling</t>
+  </si>
+  <si>
+    <t>MOX</t>
+  </si>
+  <si>
+    <t>Measured perpend. to lean</t>
+  </si>
+  <si>
+    <t>NEWLOC</t>
+  </si>
+  <si>
+    <t>New Location</t>
+  </si>
+  <si>
+    <t>NFAS</t>
+  </si>
+  <si>
+    <t>Not Found After Search</t>
+  </si>
+  <si>
+    <t>NNT</t>
+  </si>
+  <si>
+    <t>Needs New Tag</t>
+  </si>
+  <si>
+    <t>No_comment</t>
+  </si>
+  <si>
+    <t>Void</t>
+  </si>
+  <si>
+    <t>On_nurse_log</t>
+  </si>
+  <si>
+    <t>On nurse log</t>
+  </si>
+  <si>
+    <t>Phellinus_pini</t>
+  </si>
+  <si>
+    <t>Phellinus pini</t>
+  </si>
+  <si>
+    <t>PistlButt</t>
+  </si>
+  <si>
+    <t>Pistol butt</t>
+  </si>
+  <si>
+    <t>Pitch_sheets</t>
+  </si>
+  <si>
+    <t>Pitch sheets</t>
+  </si>
+  <si>
+    <t>Pitch_tubes</t>
+  </si>
+  <si>
+    <t>Pitch tubes</t>
+  </si>
+  <si>
+    <t>PrevTagATD</t>
+  </si>
+  <si>
+    <t>Prev tagged, add to database</t>
+  </si>
+  <si>
+    <t>ReitLdr</t>
+  </si>
+  <si>
+    <t>Reiterated leader</t>
+  </si>
+  <si>
+    <t>Rot_in_bole</t>
+  </si>
+  <si>
+    <t>Rot in bole</t>
+  </si>
+  <si>
+    <t>Sapsucker_holes</t>
+  </si>
+  <si>
+    <t>Sapsucker holes</t>
+  </si>
+  <si>
+    <t>Sawdust</t>
+  </si>
+  <si>
+    <t>Sparse_crown</t>
+  </si>
+  <si>
+    <t>Sparse crown</t>
+  </si>
+  <si>
+    <t>StemSwp</t>
+  </si>
+  <si>
+    <t>Stem Sweep</t>
+  </si>
+  <si>
+    <t>Stilt-rooted</t>
+  </si>
+  <si>
+    <t>SweepVert</t>
+  </si>
+  <si>
+    <t>Sweeps to vertical</t>
+  </si>
+  <si>
+    <t>T_NBH</t>
+  </si>
+  <si>
+    <t>Tag Nailed at Breast height</t>
+  </si>
+  <si>
+    <t>TF_NEstHt</t>
+  </si>
+  <si>
+    <t>Tag Found, Nailed at Estimated Breast Height</t>
+  </si>
+  <si>
+    <t>TF_NPrevHt</t>
+  </si>
+  <si>
+    <t>Tag Found, Nailed at Previous Height</t>
+  </si>
+  <si>
+    <t>TgRepl</t>
+  </si>
+  <si>
+    <t>Tag Replaced</t>
+  </si>
+  <si>
+    <t>TNF_NEstHt</t>
+  </si>
+  <si>
+    <t>Tag not found, temp tag at EstHt</t>
+  </si>
+  <si>
+    <t>WtchBrm</t>
+  </si>
+  <si>
+    <t>Witches' Broom Present</t>
+  </si>
+  <si>
+    <t>1 - Main stem intact</t>
+  </si>
+  <si>
+    <t>2 - Broken above root collar</t>
+  </si>
+  <si>
+    <t>3 - Broken below root collar</t>
+  </si>
+  <si>
+    <t>1 - Fully rooted</t>
+  </si>
+  <si>
+    <t>2 - Partially rooted</t>
+  </si>
+  <si>
+    <t>3 - Uprooted</t>
+  </si>
+  <si>
+    <t>1 - Good</t>
+  </si>
+  <si>
+    <t>2 - Fair</t>
+  </si>
+  <si>
+    <t>3 - Poor</t>
+  </si>
+  <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>Stand</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>Plot</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>partition</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>defaultViewType</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>LIST</t>
+  </si>
+  <si>
+    <t>detailViewFileName</t>
+  </si>
+  <si>
+    <t>listViewFileName</t>
+  </si>
+  <si>
+    <t>config/tables/remeasure/html/remeasure_list.html</t>
+  </si>
+  <si>
+    <t>config/tables/remeasure/html/remeasure_detail.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -702,22 +756,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -736,7 +775,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -788,14 +827,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -811,85 +850,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -948,31 +931,339 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.61"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -983,7 +1274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -992,16 +1283,16 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="3">
         <v>20180101</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1010,7 +1301,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1020,10 +1311,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1031,31 +1321,114 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A68881D-8809-487D-A56B-3A7502CC8B35}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="121.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="121.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="1025" width="11.5703125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -1096,7 +1469,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -1105,327 +1478,362 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>24</v>
+        <v>188</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="M3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>32</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5"/>
-      <c r="C15" s="5" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="C14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5"/>
-      <c r="C19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5"/>
-      <c r="C20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5"/>
-      <c r="C21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="C22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="C25" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col min="1" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -1436,40 +1844,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -1480,7 +1888,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -1491,7 +1899,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>74</v>
       </c>
@@ -1502,17 +1910,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>57</v>
       </c>
@@ -1523,7 +1931,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>57</v>
       </c>
@@ -1534,7 +1942,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
@@ -1545,7 +1953,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -1556,7 +1964,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>57</v>
       </c>
@@ -1567,7 +1975,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>57</v>
       </c>
@@ -1578,7 +1986,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>57</v>
       </c>
@@ -1589,7 +1997,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>57</v>
       </c>
@@ -1600,7 +2008,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>57</v>
       </c>
@@ -1611,7 +2019,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>57</v>
       </c>
@@ -1622,7 +2030,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -1633,7 +2041,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>57</v>
       </c>
@@ -1644,7 +2052,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>57</v>
       </c>
@@ -1655,7 +2063,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>57</v>
       </c>
@@ -1666,7 +2074,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
@@ -1677,7 +2085,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>57</v>
       </c>
@@ -1688,7 +2096,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>57</v>
       </c>
@@ -1699,7 +2107,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>57</v>
       </c>
@@ -1710,7 +2118,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>57</v>
       </c>
@@ -1721,7 +2129,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>57</v>
       </c>
@@ -1732,7 +2140,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>57</v>
       </c>
@@ -1743,7 +2151,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>57</v>
       </c>
@@ -1754,7 +2162,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>57</v>
       </c>
@@ -1765,7 +2173,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>57</v>
       </c>
@@ -1776,7 +2184,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>57</v>
       </c>
@@ -1787,7 +2195,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>57</v>
       </c>
@@ -1798,7 +2206,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>57</v>
       </c>
@@ -1809,7 +2217,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>57</v>
       </c>
@@ -1820,7 +2228,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>57</v>
       </c>
@@ -1831,7 +2239,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>57</v>
       </c>
@@ -1842,7 +2250,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>57</v>
       </c>
@@ -1853,7 +2261,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>57</v>
       </c>
@@ -1864,7 +2272,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>57</v>
       </c>
@@ -1875,7 +2283,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>57</v>
       </c>
@@ -1886,7 +2294,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>57</v>
       </c>
@@ -1897,7 +2305,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>57</v>
       </c>
@@ -1908,7 +2316,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>57</v>
       </c>
@@ -1919,7 +2327,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>57</v>
       </c>
@@ -1930,7 +2338,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>57</v>
       </c>
@@ -1941,7 +2349,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>57</v>
       </c>
@@ -1952,7 +2360,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>57</v>
       </c>
@@ -1963,7 +2371,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>57</v>
       </c>
@@ -1974,7 +2382,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>57</v>
       </c>
@@ -1985,7 +2393,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>57</v>
       </c>
@@ -1996,7 +2404,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>57</v>
       </c>
@@ -2007,7 +2415,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>57</v>
       </c>
@@ -2018,7 +2426,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>57</v>
       </c>
@@ -2029,7 +2437,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>57</v>
       </c>
@@ -2040,7 +2448,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>57</v>
       </c>
@@ -2051,7 +2459,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>57</v>
       </c>
@@ -2062,7 +2470,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>57</v>
       </c>
@@ -2073,124 +2481,124 @@
         <v>178</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="5" t="n">
+      <c r="B64" s="5">
         <v>1</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="5" t="n">
+      <c r="B65" s="5">
         <v>2</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="5" t="n">
+      <c r="B66" s="5">
         <v>3</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B68" s="5" t="n">
+      <c r="B68" s="5">
         <v>1</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B69" s="5" t="n">
+      <c r="B69" s="5">
         <v>2</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B70" s="5" t="n">
+      <c r="B70" s="5">
         <v>3</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B72" s="5" t="n">
+      <c r="B72" s="5">
         <v>1</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B73" s="5" t="n">
+      <c r="B73" s="5">
         <v>2</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B74" s="5" t="n">
+      <c r="B74" s="5">
         <v>3</v>
       </c>
       <c r="C74" s="5" t="s">
@@ -2198,10 +2606,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/odk_app/config/tables/remeasure/forms/remeasure/remeasure.xlsx
+++ b/odk_app/config/tables/remeasure/forms/remeasure/remeasure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\dev\classes\capstone\app-designer-2.1.6\app\config\tables\remeasure\forms\remeasure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E1B4FD-CC82-4E9B-99E1-EF3B55917C3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF462C0-70A1-455C-A285-9061A04D8076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21390" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22890" yWindow="7635" windowWidth="21600" windowHeight="11520" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="survey" sheetId="2" r:id="rId3"/>
     <sheet name="choices" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="214">
   <si>
     <t>setting_name</t>
   </si>
@@ -742,6 +742,33 @@
   </si>
   <si>
     <t>config/tables/remeasure/html/remeasure_detail.html</t>
+  </si>
+  <si>
+    <t>TreeID</t>
+  </si>
+  <si>
+    <t>tree_status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>1 - Alive</t>
+  </si>
+  <si>
+    <t>2 - Ingrowth</t>
+  </si>
+  <si>
+    <t>3 - Fused at DBH</t>
+  </si>
+  <si>
+    <t>6 - Dead</t>
+  </si>
+  <si>
+    <t>9 - Not found</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A68881D-8809-487D-A56B-3A7502CC8B35}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1408,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C8" sqref="C8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1481,27 +1508,27 @@
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -1511,10 +1538,10 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -1524,44 +1551,42 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="M6">
-        <v>1</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>31</v>
+      <c r="D8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" t="s">
+        <v>208</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="M8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -1570,65 +1595,71 @@
         <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1636,140 +1667,134 @@
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
-        <v>47</v>
-      </c>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
-        <v>49</v>
+      <c r="A16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="C18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" t="s">
-        <v>53</v>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>54</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>55</v>
+      <c r="A20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="C22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>59</v>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="C23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="A23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
@@ -1780,33 +1805,63 @@
         <v>57</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="C25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="C27" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1820,10 +1875,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2605,6 +2660,61 @@
         <v>187</v>
       </c>
     </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>206</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>206</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>206</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>206</v>
+      </c>
+      <c r="B80">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>213</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
